--- a/sofaplayer/Ligue_1/Olympique Lyonnais_stats.xlsx
+++ b/sofaplayer/Ligue_1/Olympique Lyonnais_stats.xlsx
@@ -4226,140 +4226,140 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rachid Ghezzal</t>
+          <t>Pavel Šulc</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>123228</v>
+        <v>957604</v>
       </c>
       <c r="E11" t="n">
-        <v>6.46</v>
+        <v>7.0823529411765</v>
       </c>
       <c r="F11" t="n">
+        <v>19</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1149</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6.8202</v>
+      </c>
+      <c r="L11" t="n">
+        <v>114.9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>32</v>
+      </c>
+      <c r="N11" t="n">
+        <v>15</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.53600302</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>490</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>215</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>76.78571428571399</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>280</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>83</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>132</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>21.428571428571</v>
+      </c>
+      <c r="AO11" t="n">
         <v>7</v>
       </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>138</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.0949</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.11447256</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>104</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>78.461538461538</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>18.181818181818</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
       <c r="AP11" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AR11" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AU11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -4371,172 +4371,172 @@
         <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
         <v>50</v>
       </c>
       <c r="BA11" t="n">
+        <v>56</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>36.842105263158</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>44</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>41.904761904762</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>25.531914893617</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>147</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>14</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>120.4</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>17</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>12</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>65</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="n">
         <v>9</v>
       </c>
-      <c r="BB11" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="BE11" t="n">
+      <c r="BW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>27</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>5</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>14</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="CK11" t="n">
         <v>3</v>
       </c>
-      <c r="BF11" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>33</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>5</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>5</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT11" t="n">
+      <c r="CL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>13</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>26</v>
+      </c>
+      <c r="CT11" t="n">
         <v>14</v>
       </c>
-      <c r="BU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>3</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>5</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR11" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS11" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>11</v>
-      </c>
       <c r="CU11" t="n">
+        <v>96</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>35</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ11" t="n">
         <v>12</v>
       </c>
-      <c r="CV11" t="n">
-        <v>4</v>
-      </c>
-      <c r="CW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ11" t="n">
-        <v>4</v>
-      </c>
       <c r="DA11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="DB11" t="n">
-        <v>60</v>
+        <v>47.368421052632</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4548,10 +4548,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="DG11" t="n">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="DJ11" t="n">
-        <v>2268745</v>
+        <v>2137907</v>
       </c>
       <c r="DK11" t="inlineStr">
         <is>
@@ -4582,47 +4582,47 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Pavel Šulc</t>
+          <t>Rachid Ghezzal</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>957604</v>
+        <v>123228</v>
       </c>
       <c r="E12" t="n">
-        <v>7.0823529411765</v>
+        <v>6.46</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1149</v>
+        <v>138</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>6.8202</v>
+        <v>0.0949</v>
       </c>
       <c r="L12" t="n">
-        <v>114.9</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>31.25</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -4634,88 +4634,88 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.11447256</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>104</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>78.461538461538</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>18.181818181818</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS12" t="n">
         <v>3</v>
       </c>
-      <c r="W12" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1.53600302</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>490</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>215</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>76.78571428571399</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>280</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>83</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>132</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>21.428571428571</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>31</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>13</v>
-      </c>
       <c r="AT12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV12" t="n">
         <v>0</v>
@@ -4727,172 +4727,172 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AZ12" t="n">
         <v>50</v>
       </c>
       <c r="BA12" t="n">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="BB12" t="n">
-        <v>36.842105263158</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BC12" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="BD12" t="n">
-        <v>41.904761904762</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BE12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>42.857142857143</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>33</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>14</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>3</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>5</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>11</v>
+      </c>
+      <c r="CU12" t="n">
         <v>12</v>
       </c>
-      <c r="BF12" t="n">
-        <v>25.531914893617</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>147</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>25</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>12</v>
-      </c>
-      <c r="BJ12" t="n">
+      <c r="CV12" t="n">
         <v>4</v>
       </c>
-      <c r="BK12" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN12" t="n">
+      <c r="CW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>4</v>
+      </c>
+      <c r="DA12" t="n">
         <v>3</v>
       </c>
-      <c r="BO12" t="n">
-        <v>14</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>120.4</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>17</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>12</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>65</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>9</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>27</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>5</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>10</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>14</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>5</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR12" t="n">
-        <v>13</v>
-      </c>
-      <c r="CS12" t="n">
-        <v>26</v>
-      </c>
-      <c r="CT12" t="n">
-        <v>14</v>
-      </c>
-      <c r="CU12" t="n">
-        <v>96</v>
-      </c>
-      <c r="CV12" t="n">
-        <v>35</v>
-      </c>
-      <c r="CW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ12" t="n">
-        <v>12</v>
-      </c>
-      <c r="DA12" t="n">
-        <v>9</v>
-      </c>
       <c r="DB12" t="n">
-        <v>47.368421052632</v>
+        <v>60</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4904,10 +4904,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="DG12" t="n">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="DJ12" t="n">
-        <v>2137907</v>
+        <v>2268745</v>
       </c>
       <c r="DK12" t="inlineStr">
         <is>

--- a/sofaplayer/Ligue_1/Olympique Lyonnais_stats.xlsx
+++ b/sofaplayer/Ligue_1/Olympique Lyonnais_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL26"/>
+  <dimension ref="A1:DL27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1740,143 +1740,141 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Afonso Moreira</t>
+          <t>Roman Yaremchuk</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1215906</v>
+        <v>829296</v>
       </c>
       <c r="E4" t="n">
-        <v>6.8888888888889</v>
+        <v>6.5</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1009</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.3662</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>504.5</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.00184214</v>
+      </c>
+      <c r="AB4" t="n">
         <v>8</v>
       </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8.695652173913</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>83.333333333333</v>
+      </c>
+      <c r="AG4" t="n">
         <v>6</v>
       </c>
-      <c r="AA4" t="n">
-        <v>3.75985027</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>585</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>83.94648829431399</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>299</v>
-      </c>
       <c r="AH4" t="n">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="n">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="AJ4" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="AK4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>46.666666666667</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>26.153846153846</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -1885,43 +1883,43 @@
         <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>30.952380952381</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="BB4" t="n">
-        <v>42.465753424658</v>
+        <v>50</v>
       </c>
       <c r="BC4" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>46.031746031746</v>
+        <v>0</v>
       </c>
       <c r="BE4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="BG4" t="n">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="BH4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="BI4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>0</v>
@@ -1930,31 +1928,31 @@
         <v>0</v>
       </c>
       <c r="BN4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>124</v>
+        <v>6.5</v>
       </c>
       <c r="BR4" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="BS4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -1963,22 +1961,22 @@
         <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="CA4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
         <v>0</v>
@@ -1996,10 +1994,10 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL4" t="n">
         <v>0</v>
@@ -2020,19 +2018,19 @@
         <v>0</v>
       </c>
       <c r="CR4" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="CT4" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="CU4" t="n">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="CV4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
@@ -2044,13 +2042,13 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="DA4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="DB4" t="n">
-        <v>66.666666666667</v>
+        <v>0</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2062,10 +2060,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="DG4" t="n">
-        <v>214</v>
+        <v>3</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2074,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2166782</v>
+        <v>2677521</v>
       </c>
       <c r="DK4" t="inlineStr">
         <is>
@@ -2096,221 +2094,221 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Adil Hamdani</t>
+          <t>Afonso Moreira</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2369898</v>
+        <v>1215906</v>
       </c>
       <c r="E5" t="n">
-        <v>6.5</v>
+        <v>6.8888888888889</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
+        <v>1009</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.3662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>504.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>23</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8.695652173913</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3.75985027</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>585</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>83.94648829431399</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>299</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>77</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>174</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>99</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>46.666666666667</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>26.153846153846</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>49</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>30.952380952381</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>62</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>42.465753424658</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>58</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>46.031746031746</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>20</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>181</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>25</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO5" t="n">
         <v>10</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0144</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.00174666</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>0</v>
-      </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>6.5</v>
+        <v>124</v>
       </c>
       <c r="BR5" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BT5" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
@@ -2319,22 +2317,22 @@
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="CA5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="CB5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CE5" t="n">
         <v>0</v>
@@ -2352,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL5" t="n">
         <v>0</v>
@@ -2376,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CS5" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="CT5" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="CV5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -2400,13 +2398,13 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="DB5" t="n">
-        <v>0</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2418,19 +2416,19 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="DG5" t="n">
-        <v>2</v>
+        <v>214</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ5" t="n">
-        <v>2471802</v>
+        <v>2166782</v>
       </c>
       <c r="DK5" t="inlineStr">
         <is>
@@ -3165,16 +3163,16 @@
         <v>979118</v>
       </c>
       <c r="E8" t="n">
-        <v>7.2166666666667</v>
+        <v>7.2315789473684</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" t="n">
-        <v>1587</v>
+        <v>1677</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -3183,13 +3181,13 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>1.257</v>
+        <v>1.3068</v>
       </c>
       <c r="L8" t="n">
-        <v>793.5</v>
+        <v>838.5</v>
       </c>
       <c r="M8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N8" t="n">
         <v>6</v>
@@ -3198,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>9.523809523809501</v>
+        <v>9.090909090909101</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -3231,67 +3229,67 @@
         <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.8524321</v>
+        <v>2.8831702</v>
       </c>
       <c r="AB8" t="n">
-        <v>1199</v>
+        <v>1287</v>
       </c>
       <c r="AC8" t="n">
         <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE8" t="n">
-        <v>800</v>
+        <v>868</v>
       </c>
       <c r="AF8" t="n">
-        <v>87.912087912088</v>
+        <v>88.121827411168</v>
       </c>
       <c r="AG8" t="n">
-        <v>910</v>
+        <v>985</v>
       </c>
       <c r="AH8" t="n">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="AI8" t="n">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="AJ8" t="n">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AK8" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AL8" t="n">
-        <v>70.10309278350501</v>
+        <v>71.287128712871</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>25.352112676056</v>
+        <v>24.657534246575</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AQ8" t="n">
         <v>9</v>
       </c>
       <c r="AR8" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AS8" t="n">
         <v>5</v>
       </c>
       <c r="AT8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV8" t="n">
         <v>2</v>
@@ -3306,34 +3304,34 @@
         <v>10</v>
       </c>
       <c r="AZ8" t="n">
-        <v>66.666666666667</v>
+        <v>62.5</v>
       </c>
       <c r="BA8" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="BB8" t="n">
-        <v>53.448275862069</v>
+        <v>53.719008264463</v>
       </c>
       <c r="BC8" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="BD8" t="n">
-        <v>56.382978723404</v>
+        <v>56.122448979592</v>
       </c>
       <c r="BE8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF8" t="n">
-        <v>40.909090909091</v>
+        <v>43.478260869565</v>
       </c>
       <c r="BG8" t="n">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="BH8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BI8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -3348,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="BN8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO8" t="n">
         <v>17</v>
@@ -3357,16 +3355,16 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>129.9</v>
+        <v>137.4</v>
       </c>
       <c r="BR8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS8" t="n">
         <v>4</v>
       </c>
       <c r="BT8" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="BU8" t="n">
         <v>1</v>
@@ -3387,16 +3385,16 @@
         <v>5</v>
       </c>
       <c r="CA8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CB8" t="n">
         <v>10</v>
       </c>
       <c r="CC8" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="CD8" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3438,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CS8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CT8" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CU8" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="CV8" t="n">
         <v>13</v>
@@ -3462,13 +3460,13 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="DA8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DB8" t="n">
-        <v>62.5</v>
+        <v>63.636363636364</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3480,16 +3478,16 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>421</v>
+        <v>459</v>
       </c>
       <c r="DG8" t="n">
-        <v>489</v>
+        <v>526</v>
       </c>
       <c r="DH8" t="n">
         <v>1</v>
       </c>
       <c r="DI8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DJ8" t="n">
         <v>2137961</v>
@@ -3521,16 +3519,16 @@
         <v>2127096</v>
       </c>
       <c r="E9" t="n">
-        <v>6.6076923076923</v>
+        <v>6.6</v>
       </c>
       <c r="F9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
         <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>687</v>
+        <v>711</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3587,10 +3585,10 @@
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.76337139</v>
+        <v>0.77536819</v>
       </c>
       <c r="AB9" t="n">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="AC9" t="n">
         <v>2</v>
@@ -3599,37 +3597,37 @@
         <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="AF9" t="n">
-        <v>84.912280701754</v>
+        <v>85.71428571428601</v>
       </c>
       <c r="AG9" t="n">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="AH9" t="n">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="AI9" t="n">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="AJ9" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL9" t="n">
-        <v>58.333333333333</v>
+        <v>61.538461538462</v>
       </c>
       <c r="AM9" t="n">
         <v>1</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP9" t="n">
         <v>8</v>
@@ -3638,10 +3636,10 @@
         <v>4</v>
       </c>
       <c r="AR9" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AS9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AT9" t="n">
         <v>3</v>
@@ -3668,13 +3666,13 @@
         <v>28</v>
       </c>
       <c r="BB9" t="n">
-        <v>49.122807017544</v>
+        <v>47.457627118644</v>
       </c>
       <c r="BC9" t="n">
         <v>27</v>
       </c>
       <c r="BD9" t="n">
-        <v>51.923076923077</v>
+        <v>50</v>
       </c>
       <c r="BE9" t="n">
         <v>1</v>
@@ -3683,7 +3681,7 @@
         <v>20</v>
       </c>
       <c r="BG9" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="BH9" t="n">
         <v>10</v>
@@ -3713,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>85.90000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="BR9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS9" t="n">
         <v>1</v>
       </c>
       <c r="BT9" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3749,10 +3747,10 @@
         <v>5</v>
       </c>
       <c r="CC9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CD9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3800,10 +3798,10 @@
         <v>8</v>
       </c>
       <c r="CT9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CU9" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CV9" t="n">
         <v>4</v>
@@ -3818,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DA9" t="n">
         <v>3</v>
@@ -3836,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="DG9" t="n">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3877,40 +3875,40 @@
         <v>343067</v>
       </c>
       <c r="E10" t="n">
-        <v>6.9777777777778</v>
+        <v>6.9684210526316</v>
       </c>
       <c r="F10" t="n">
+        <v>19</v>
+      </c>
+      <c r="G10" t="n">
         <v>18</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>1510</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.7395</v>
+      </c>
+      <c r="L10" t="n">
+        <v>377.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>36</v>
+      </c>
+      <c r="N10" t="n">
         <v>17</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1444</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.3385</v>
-      </c>
-      <c r="L10" t="n">
-        <v>481.33333333333</v>
-      </c>
-      <c r="M10" t="n">
-        <v>34</v>
-      </c>
-      <c r="N10" t="n">
-        <v>16</v>
       </c>
       <c r="O10" t="n">
         <v>7</v>
       </c>
       <c r="P10" t="n">
-        <v>8.823529411764699</v>
+        <v>11.111111111111</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -3922,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -3934,7 +3932,7 @@
         <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -3943,10 +3941,10 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.26031657</v>
+        <v>2.30621077</v>
       </c>
       <c r="AB10" t="n">
-        <v>1072</v>
+        <v>1126</v>
       </c>
       <c r="AC10" t="n">
         <v>6</v>
@@ -3955,55 +3953,55 @@
         <v>23</v>
       </c>
       <c r="AE10" t="n">
-        <v>695</v>
+        <v>719</v>
       </c>
       <c r="AF10" t="n">
-        <v>85.17156862745099</v>
+        <v>84.58823529411799</v>
       </c>
       <c r="AG10" t="n">
-        <v>816</v>
+        <v>850</v>
       </c>
       <c r="AH10" t="n">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AI10" t="n">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="AJ10" t="n">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AK10" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AL10" t="n">
-        <v>78.378378378378</v>
+        <v>79.22077922077899</v>
       </c>
       <c r="AM10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>26.086956521739</v>
+        <v>25.925925925926</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR10" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
@@ -4018,34 +4016,34 @@
         <v>3</v>
       </c>
       <c r="AZ10" t="n">
-        <v>42.857142857143</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BA10" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="BB10" t="n">
-        <v>44.973544973545</v>
+        <v>44.554455445545</v>
       </c>
       <c r="BC10" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="BD10" t="n">
-        <v>44.628099173554</v>
+        <v>42.748091603053</v>
       </c>
       <c r="BE10" t="n">
+        <v>34</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>47.887323943662</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>208</v>
+      </c>
+      <c r="BH10" t="n">
         <v>31</v>
       </c>
-      <c r="BF10" t="n">
-        <v>45.588235294118</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>189</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>28</v>
-      </c>
       <c r="BI10" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BJ10" t="n">
         <v>2</v>
@@ -4069,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>125.6</v>
+        <v>132.4</v>
       </c>
       <c r="BR10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT10" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4096,19 +4094,19 @@
         <v>0</v>
       </c>
       <c r="BZ10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CA10" t="n">
         <v>11</v>
       </c>
       <c r="CB10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CC10" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="CD10" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4153,13 +4151,13 @@
         <v>22</v>
       </c>
       <c r="CS10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CT10" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="CU10" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="CV10" t="n">
         <v>37</v>
@@ -4174,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="CZ10" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="DA10" t="n">
         <v>10</v>
@@ -4192,10 +4190,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="DG10" t="n">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4233,16 +4231,16 @@
         <v>957604</v>
       </c>
       <c r="E11" t="n">
-        <v>7.0823529411765</v>
+        <v>7.0388888888889</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>1149</v>
+        <v>1230</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -4251,22 +4249,22 @@
         <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>6.8202</v>
+        <v>7.457</v>
       </c>
       <c r="L11" t="n">
-        <v>114.9</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N11" t="n">
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
-        <v>31.25</v>
+        <v>27.777777777778</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -4296,43 +4294,43 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.53600302</v>
+        <v>1.53838117</v>
       </c>
       <c r="AB11" t="n">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="AC11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AF11" t="n">
-        <v>76.78571428571399</v>
+        <v>75.593220338983</v>
       </c>
       <c r="AG11" t="n">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="AH11" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AI11" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AJ11" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AK11" t="n">
         <v>6</v>
       </c>
       <c r="AL11" t="n">
-        <v>50</v>
+        <v>46.153846153846</v>
       </c>
       <c r="AM11" t="n">
         <v>3</v>
@@ -4350,16 +4348,16 @@
         <v>6</v>
       </c>
       <c r="AR11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AS11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT11" t="n">
         <v>10</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -4371,31 +4369,31 @@
         <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ11" t="n">
         <v>50</v>
       </c>
       <c r="BA11" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BB11" t="n">
-        <v>36.842105263158</v>
+        <v>36.538461538462</v>
       </c>
       <c r="BC11" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BD11" t="n">
-        <v>41.904761904762</v>
+        <v>41.666666666667</v>
       </c>
       <c r="BE11" t="n">
         <v>12</v>
       </c>
       <c r="BF11" t="n">
-        <v>25.531914893617</v>
+        <v>25</v>
       </c>
       <c r="BG11" t="n">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="BH11" t="n">
         <v>25</v>
@@ -4425,23 +4423,23 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>120.4</v>
+        <v>126.7</v>
       </c>
       <c r="BR11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS11" t="n">
+        <v>13</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>72</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="n">
         <v>12</v>
       </c>
-      <c r="BT11" t="n">
-        <v>65</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>9</v>
-      </c>
       <c r="BW11" t="n">
         <v>0</v>
       </c>
@@ -4452,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CA11" t="n">
         <v>5</v>
@@ -4461,7 +4459,7 @@
         <v>10</v>
       </c>
       <c r="CC11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CD11" t="n">
         <v>5</v>
@@ -4506,19 +4504,19 @@
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CS11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CT11" t="n">
         <v>14</v>
       </c>
       <c r="CU11" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="CV11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CW11" t="n">
         <v>0</v>
@@ -4530,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DA11" t="n">
         <v>9</v>
@@ -4548,10 +4546,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="DG11" t="n">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4945,40 +4943,40 @@
         <v>1195782</v>
       </c>
       <c r="E13" t="n">
-        <v>7.45</v>
+        <v>7.5666666666667</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4028</v>
+        <v>0.8221000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>50</v>
+        <v>66.666666666667</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -4990,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -4999,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
         <v>1</v>
@@ -5011,34 +5009,34 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.1202643</v>
+        <v>0.1667999</v>
       </c>
       <c r="AB13" t="n">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AF13" t="n">
-        <v>85.48387096774201</v>
+        <v>89</v>
       </c>
       <c r="AG13" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="AI13" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AK13" t="n">
         <v>2</v>
@@ -5053,68 +5051,68 @@
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>72.727272727273</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>48.571428571429</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>54.838709677419</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>27</v>
+      </c>
+      <c r="BH13" t="n">
         <v>4</v>
       </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="BI13" t="n">
         <v>4</v>
       </c>
-      <c r="AT13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>85.71428571428601</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>50</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>12</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>57.142857142857</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>19</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>2</v>
-      </c>
       <c r="BJ13" t="n">
         <v>0</v>
       </c>
@@ -5128,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO13" t="n">
         <v>0</v>
@@ -5137,16 +5135,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>14.9</v>
+        <v>22.7</v>
       </c>
       <c r="BR13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5164,13 +5162,13 @@
         <v>0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CA13" t="n">
         <v>1</v>
       </c>
       <c r="CB13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CC13" t="n">
         <v>1</v>
@@ -5218,19 +5216,19 @@
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="CT13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU13" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="CV13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -5245,10 +5243,10 @@
         <v>2</v>
       </c>
       <c r="DA13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DB13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5260,10 +5258,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="DG13" t="n">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -6013,16 +6011,16 @@
         <v>1022084</v>
       </c>
       <c r="E16" t="n">
-        <v>6.8947368421053</v>
+        <v>6.89</v>
       </c>
       <c r="F16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H16" t="n">
-        <v>1405</v>
+        <v>1495</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6034,7 +6032,7 @@
         <v>1.7766</v>
       </c>
       <c r="L16" t="n">
-        <v>1405</v>
+        <v>1495</v>
       </c>
       <c r="M16" t="n">
         <v>22</v>
@@ -6079,10 +6077,10 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.0731064</v>
+        <v>1.1377696</v>
       </c>
       <c r="AB16" t="n">
-        <v>1021</v>
+        <v>1096</v>
       </c>
       <c r="AC16" t="n">
         <v>3</v>
@@ -6091,52 +6089,52 @@
         <v>10</v>
       </c>
       <c r="AE16" t="n">
-        <v>664</v>
+        <v>726</v>
       </c>
       <c r="AF16" t="n">
-        <v>85.019206145967</v>
+        <v>85.81560283687899</v>
       </c>
       <c r="AG16" t="n">
-        <v>781</v>
+        <v>846</v>
       </c>
       <c r="AH16" t="n">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="AI16" t="n">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="AJ16" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AL16" t="n">
-        <v>55.384615384615</v>
+        <v>53.623188405797</v>
       </c>
       <c r="AM16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AO16" t="n">
         <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>4</v>
       </c>
       <c r="AR16" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AS16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT16" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AU16" t="n">
         <v>4</v>
@@ -6151,43 +6149,43 @@
         <v>0</v>
       </c>
       <c r="AY16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ16" t="n">
-        <v>42.857142857143</v>
+        <v>46.666666666667</v>
       </c>
       <c r="BA16" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="BB16" t="n">
-        <v>53.04347826087</v>
+        <v>52.032520325203</v>
       </c>
       <c r="BC16" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BD16" t="n">
-        <v>51.764705882353</v>
+        <v>51.086956521739</v>
       </c>
       <c r="BE16" t="n">
         <v>17</v>
       </c>
       <c r="BF16" t="n">
-        <v>56.666666666667</v>
+        <v>54.838709677419</v>
       </c>
       <c r="BG16" t="n">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="BH16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BI16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BJ16" t="n">
         <v>3</v>
       </c>
       <c r="BK16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL16" t="n">
         <v>0</v>
@@ -6196,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="BN16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BO16" t="n">
         <v>12</v>
@@ -6205,16 +6203,16 @@
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>131</v>
+        <v>137.8</v>
       </c>
       <c r="BR16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS16" t="n">
         <v>1</v>
       </c>
       <c r="BT16" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6238,13 +6236,13 @@
         <v>11</v>
       </c>
       <c r="CB16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CC16" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="CD16" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6289,17 +6287,17 @@
         <v>10</v>
       </c>
       <c r="CS16" t="n">
+        <v>15</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>10</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>59</v>
+      </c>
+      <c r="CV16" t="n">
         <v>14</v>
       </c>
-      <c r="CT16" t="n">
-        <v>8</v>
-      </c>
-      <c r="CU16" t="n">
-        <v>54</v>
-      </c>
-      <c r="CV16" t="n">
-        <v>13</v>
-      </c>
       <c r="CW16" t="n">
         <v>0</v>
       </c>
@@ -6310,13 +6308,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="DA16" t="n">
         <v>17</v>
       </c>
       <c r="DB16" t="n">
-        <v>77.272727272727</v>
+        <v>73.913043478261</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6328,10 +6326,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="DG16" t="n">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="DH16" t="n">
         <v>2</v>
@@ -7081,32 +7079,32 @@
         <v>758168</v>
       </c>
       <c r="E19" t="n">
-        <v>7.1789473684211</v>
+        <v>7.21</v>
       </c>
       <c r="F19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H19" t="n">
-        <v>1588</v>
+        <v>1678</v>
       </c>
       <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1829</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>3</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.1667</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2</v>
-      </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
@@ -7147,10 +7145,10 @@
         <v>2</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.49152523</v>
+        <v>1.50646833</v>
       </c>
       <c r="AB19" t="n">
-        <v>1445</v>
+        <v>1554</v>
       </c>
       <c r="AC19" t="n">
         <v>3</v>
@@ -7159,28 +7157,28 @@
         <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>1093</v>
+        <v>1175</v>
       </c>
       <c r="AF19" t="n">
-        <v>89.958847736626</v>
+        <v>89.969372128637</v>
       </c>
       <c r="AG19" t="n">
-        <v>1215</v>
+        <v>1306</v>
       </c>
       <c r="AH19" t="n">
-        <v>732</v>
+        <v>797</v>
       </c>
       <c r="AI19" t="n">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="AJ19" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL19" t="n">
-        <v>41.818181818182</v>
+        <v>41.379310344828</v>
       </c>
       <c r="AM19" t="n">
         <v>2</v>
@@ -7189,22 +7187,22 @@
         <v>100</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
       </c>
       <c r="AR19" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="AS19" t="n">
         <v>6</v>
       </c>
       <c r="AT19" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AU19" t="n">
         <v>1</v>
@@ -7225,31 +7223,31 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA19" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="BB19" t="n">
-        <v>61.379310344828</v>
+        <v>62.745098039216</v>
       </c>
       <c r="BC19" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="BD19" t="n">
-        <v>58.333333333333</v>
+        <v>59.74025974026</v>
       </c>
       <c r="BE19" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="BF19" t="n">
-        <v>64.383561643836</v>
+        <v>65.789473684211</v>
       </c>
       <c r="BG19" t="n">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="BH19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BI19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BJ19" t="n">
         <v>0</v>
@@ -7264,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="BN19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BO19" t="n">
         <v>14</v>
@@ -7273,22 +7271,22 @@
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>136.4</v>
+        <v>144.2</v>
       </c>
       <c r="BR19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS19" t="n">
         <v>2</v>
       </c>
       <c r="BT19" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
       </c>
       <c r="BV19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW19" t="n">
         <v>0</v>
@@ -7303,16 +7301,16 @@
         <v>2</v>
       </c>
       <c r="CA19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB19" t="n">
         <v>1</v>
       </c>
       <c r="CC19" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="CD19" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="CE19" t="n">
         <v>0</v>
@@ -7363,7 +7361,7 @@
         <v>2</v>
       </c>
       <c r="CU19" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CV19" t="n">
         <v>26</v>
@@ -7378,13 +7376,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="DA19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DB19" t="n">
-        <v>59.090909090909</v>
+        <v>56</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7396,13 +7394,13 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>772</v>
+        <v>840</v>
       </c>
       <c r="DG19" t="n">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="DH19" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="DI19" t="n">
         <v>12</v>
@@ -7437,16 +7435,16 @@
         <v>973838</v>
       </c>
       <c r="E20" t="n">
-        <v>6.75</v>
+        <v>6.7533333333333</v>
       </c>
       <c r="F20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>1163</v>
+        <v>1253</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7458,7 +7456,7 @@
         <v>1.242</v>
       </c>
       <c r="L20" t="n">
-        <v>387.66666666667</v>
+        <v>417.66666666667</v>
       </c>
       <c r="M20" t="n">
         <v>12</v>
@@ -7503,46 +7501,46 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.84828934</v>
+        <v>1.10040634</v>
       </c>
       <c r="AB20" t="n">
-        <v>718</v>
+        <v>763</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>444</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>84.73282442748101</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>524</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>169</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>275</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>152</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM20" t="n">
         <v>9</v>
       </c>
-      <c r="AE20" t="n">
-        <v>420</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>85.53971486761699</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>491</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>164</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>141</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>60.526315789474</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>7</v>
-      </c>
       <c r="AN20" t="n">
-        <v>20.588235294118</v>
+        <v>25</v>
       </c>
       <c r="AO20" t="n">
         <v>4</v>
@@ -7551,16 +7549,16 @@
         <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR20" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AS20" t="n">
         <v>8</v>
       </c>
       <c r="AT20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU20" t="n">
         <v>7</v>
@@ -7575,34 +7573,34 @@
         <v>0</v>
       </c>
       <c r="AY20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ20" t="n">
-        <v>45.454545454545</v>
+        <v>50</v>
       </c>
       <c r="BA20" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BB20" t="n">
-        <v>40.47619047619</v>
+        <v>39.772727272727</v>
       </c>
       <c r="BC20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD20" t="n">
-        <v>40.909090909091</v>
+        <v>40.579710144928</v>
       </c>
       <c r="BE20" t="n">
         <v>7</v>
       </c>
       <c r="BF20" t="n">
-        <v>38.888888888889</v>
+        <v>36.842105263158</v>
       </c>
       <c r="BG20" t="n">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="BH20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BI20" t="n">
         <v>4</v>
@@ -7611,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="BK20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL20" t="n">
         <v>1</v>
@@ -7620,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="BN20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO20" t="n">
         <v>9</v>
@@ -7629,16 +7627,16 @@
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>94.5</v>
+        <v>101.3</v>
       </c>
       <c r="BR20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS20" t="n">
         <v>3</v>
       </c>
       <c r="BT20" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="BU20" t="n">
         <v>1</v>
@@ -7662,7 +7660,7 @@
         <v>1</v>
       </c>
       <c r="CB20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CC20" t="n">
         <v>37</v>
@@ -7674,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="CF20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CG20" t="n">
         <v>0</v>
@@ -7710,19 +7708,19 @@
         <v>0</v>
       </c>
       <c r="CR20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="CS20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CT20" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="CU20" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="CV20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7734,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="DA20" t="n">
         <v>12</v>
@@ -7752,10 +7750,10 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="DG20" t="n">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
@@ -7786,113 +7784,111 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ruben Kluivert</t>
+          <t>Noham Kamara</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1014540</v>
+        <v>1937750</v>
       </c>
       <c r="E21" t="n">
-        <v>6.6444444444444</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>577</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.2144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>577</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.00244947</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF21" t="n">
         <v>100</v>
       </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.45998235</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>422</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>283</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>88.4375</v>
-      </c>
       <c r="AG21" t="n">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="AH21" t="n">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="AI21" t="n">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>33.333333333333</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -7901,22 +7897,22 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -7925,49 +7921,49 @@
         <v>0</v>
       </c>
       <c r="AW21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX21" t="n">
         <v>0</v>
       </c>
       <c r="AY21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="BB21" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="BC21" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BD21" t="n">
-        <v>60.869565217391</v>
+        <v>0</v>
       </c>
       <c r="BE21" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BF21" t="n">
-        <v>59.090909090909</v>
+        <v>0</v>
       </c>
       <c r="BG21" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BH21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BI21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ21" t="n">
         <v>0</v>
       </c>
       <c r="BK21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL21" t="n">
         <v>0</v>
@@ -7976,25 +7972,25 @@
         <v>0</v>
       </c>
       <c r="BN21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>59.8</v>
+        <v>0</v>
       </c>
       <c r="BR21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BS21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
@@ -8012,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="BZ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA21" t="n">
         <v>0</v>
@@ -8021,10 +8017,10 @@
         <v>0</v>
       </c>
       <c r="CC21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CD21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8042,10 +8038,10 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CK21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL21" t="n">
         <v>0</v>
@@ -8066,19 +8062,19 @@
         <v>0</v>
       </c>
       <c r="CR21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CS21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CT21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU21" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="CV21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8090,13 +8086,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="DA21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="DB21" t="n">
-        <v>77.777777777778</v>
+        <v>0</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8108,19 +8104,19 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="DG21" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="DH21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="DI21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DJ21" t="n">
-        <v>2166799</v>
+        <v>2677519</v>
       </c>
       <c r="DK21" t="inlineStr">
         <is>
@@ -8142,341 +8138,341 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ainsley Maitland-Niles</t>
+          <t>Ruben Kluivert</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>352768</v>
+        <v>1014540</v>
       </c>
       <c r="E22" t="n">
-        <v>6.75</v>
+        <v>6.6444444444444</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>577</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2144</v>
+      </c>
+      <c r="L22" t="n">
+        <v>577</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.45998235</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>422</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>283</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>88.4375</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>320</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>209</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>74</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>18</v>
       </c>
-      <c r="H22" t="n">
-        <v>1649</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.2958</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1649</v>
-      </c>
-      <c r="M22" t="n">
+      <c r="AK22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>33</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>27</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>60.869565217391</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>59.090909090909</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>44</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO22" t="n">
         <v>12</v>
       </c>
-      <c r="N22" t="n">
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>37</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>11</v>
+      </c>
+      <c r="CD22" t="n">
         <v>5</v>
       </c>
-      <c r="O22" t="n">
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS22" t="n">
         <v>3</v>
       </c>
-      <c r="P22" t="n">
-        <v>8.3333333333333</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>2.32061509</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1149</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>642</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>86.40646029609699</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>743</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>360</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>282</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>144</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>52.459016393443</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>9.375</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>69</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>49</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>40</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>45.578231292517</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>57</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>46.72131147541</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>40</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>192</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>29</v>
-      </c>
-      <c r="BI22" t="n">
+      <c r="CT22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>18</v>
+      </c>
+      <c r="CV22" t="n">
         <v>9</v>
       </c>
-      <c r="BJ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>8</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>19</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>135</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>20</v>
-      </c>
-      <c r="BS22" t="n">
+      <c r="CW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>18</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>7</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>77.777777777778</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>227</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>93</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>7</v>
+      </c>
+      <c r="DI22" t="n">
         <v>4</v>
       </c>
-      <c r="BT22" t="n">
-        <v>101</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>6</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>7</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>5</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>14</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>47</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>22</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>16</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>14</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>20</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>32</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>80</v>
-      </c>
-      <c r="CV22" t="n">
-        <v>15</v>
-      </c>
-      <c r="CW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>61</v>
-      </c>
-      <c r="DA22" t="n">
-        <v>24</v>
-      </c>
-      <c r="DB22" t="n">
-        <v>60</v>
-      </c>
-      <c r="DC22" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF22" t="n">
-        <v>399</v>
-      </c>
-      <c r="DG22" t="n">
-        <v>344</v>
-      </c>
-      <c r="DH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI22" t="n">
-        <v>2</v>
-      </c>
       <c r="DJ22" t="n">
-        <v>2137953</v>
+        <v>2166799</v>
       </c>
       <c r="DK22" t="inlineStr">
         <is>
@@ -8498,47 +8494,47 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Clinton Mata</t>
+          <t>Ainsley Maitland-Niles</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>152813</v>
+        <v>352768</v>
       </c>
       <c r="E23" t="n">
-        <v>7.08</v>
+        <v>6.7809523809524</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" t="n">
-        <v>1756</v>
+        <v>1738</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1063</v>
+        <v>2.2958</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1738</v>
       </c>
       <c r="M23" t="n">
+        <v>12</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5</v>
+      </c>
+      <c r="O23" t="n">
         <v>3</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>8.3333333333333</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -8553,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -8562,76 +8558,76 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.56148159</v>
+        <v>2.39074849</v>
       </c>
       <c r="AB23" t="n">
-        <v>1433</v>
+        <v>1213</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>1048</v>
+        <v>689</v>
       </c>
       <c r="AF23" t="n">
-        <v>90.267011197244</v>
+        <v>86.449184441656</v>
       </c>
       <c r="AG23" t="n">
-        <v>1161</v>
+        <v>797</v>
       </c>
       <c r="AH23" t="n">
-        <v>751</v>
+        <v>387</v>
       </c>
       <c r="AI23" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AJ23" t="n">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="AK23" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="AL23" t="n">
-        <v>42.708333333333</v>
+        <v>51.5625</v>
       </c>
       <c r="AM23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN23" t="n">
-        <v>20</v>
+        <v>8.823529411764699</v>
       </c>
       <c r="AO23" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AP23" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AR23" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AS23" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AT23" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="AU23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV23" t="n">
         <v>1</v>
@@ -8643,103 +8639,103 @@
         <v>0</v>
       </c>
       <c r="AY23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ23" t="n">
         <v>45.454545454545</v>
       </c>
       <c r="BA23" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="BB23" t="n">
-        <v>57.241379310345</v>
+        <v>47.058823529412</v>
       </c>
       <c r="BC23" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="BD23" t="n">
-        <v>60.416666666667</v>
+        <v>48.031496062992</v>
       </c>
       <c r="BE23" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="BF23" t="n">
-        <v>51.020408163265</v>
+        <v>42.307692307692</v>
       </c>
       <c r="BG23" t="n">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="BH23" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="BI23" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BJ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK23" t="n">
         <v>4</v>
       </c>
       <c r="BL23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM23" t="n">
         <v>0</v>
       </c>
       <c r="BN23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BO23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BP23" t="n">
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>141.6</v>
+        <v>142.4</v>
       </c>
       <c r="BR23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT23" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
       </c>
       <c r="BV23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BW23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX23" t="n">
         <v>0</v>
       </c>
       <c r="BY23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CA23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CB23" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CC23" t="n">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="CD23" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="CE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF23" t="n">
         <v>0</v>
@@ -8754,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="CJ23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="CK23" t="n">
         <v>3</v>
@@ -8778,19 +8774,19 @@
         <v>0</v>
       </c>
       <c r="CR23" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="CS23" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="CT23" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="CU23" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="CV23" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="CW23" t="n">
         <v>0</v>
@@ -8799,19 +8795,19 @@
         <v>0</v>
       </c>
       <c r="CY23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ23" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="DA23" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="DB23" t="n">
-        <v>41.379310344828</v>
+        <v>59.52380952381</v>
       </c>
       <c r="DC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD23" t="n">
         <v>0</v>
@@ -8820,19 +8816,19 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>792</v>
+        <v>427</v>
       </c>
       <c r="DG23" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="DH23" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="DI23" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="DJ23" t="n">
-        <v>2137955</v>
+        <v>2137953</v>
       </c>
       <c r="DK23" t="inlineStr">
         <is>
@@ -8854,218 +8850,218 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Hans Hateboer</t>
+          <t>Clinton Mata</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>356352</v>
+        <v>152813</v>
       </c>
       <c r="E24" t="n">
-        <v>5.925</v>
+        <v>7.0809523809524</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G24" t="n">
+        <v>21</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1846</v>
+      </c>
+      <c r="I24" t="n">
         <v>4</v>
       </c>
-      <c r="H24" t="n">
-        <v>353</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6</v>
+        <v>0.1063</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.56744641</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1525</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1122</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>90.48387096774201</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1240</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>814</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>308</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>88</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>41.836734693878</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>16.666666666667</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>71</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>102</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
         <v>5</v>
       </c>
-      <c r="N24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.08861743</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>230</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>83.333333333333</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>156</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ24" t="n">
+      <c r="AZ24" t="n">
+        <v>41.666666666667</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>85</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>57.432432432432</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>60</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>60.606060606061</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>25</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>51.020408163265</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>148</v>
+      </c>
+      <c r="BH24" t="n">
         <v>23</v>
       </c>
-      <c r="AK24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>11.111111111111</v>
-      </c>
-      <c r="AO24" t="n">
+      <c r="BI24" t="n">
+        <v>26</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
         <v>4</v>
       </c>
-      <c r="AP24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>52.631578947368</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>41.666666666667</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>71.428571428571</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>51</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>0</v>
-      </c>
       <c r="BL24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM24" t="n">
         <v>0</v>
       </c>
       <c r="BN24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BO24" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="BP24" t="n">
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>47.4</v>
+        <v>148.7</v>
       </c>
       <c r="BR24" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="BU24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV24" t="n">
         <v>3</v>
@@ -9077,25 +9073,25 @@
         <v>0</v>
       </c>
       <c r="BY24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CA24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC24" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="CD24" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="CE24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF24" t="n">
         <v>0</v>
@@ -9110,11 +9106,11 @@
         <v>0</v>
       </c>
       <c r="CJ24" t="n">
+        <v>17</v>
+      </c>
+      <c r="CK24" t="n">
         <v>3</v>
       </c>
-      <c r="CK24" t="n">
-        <v>2</v>
-      </c>
       <c r="CL24" t="n">
         <v>0</v>
       </c>
@@ -9134,19 +9130,19 @@
         <v>0</v>
       </c>
       <c r="CR24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS24" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CT24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="CU24" t="n">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="CV24" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="CW24" t="n">
         <v>0</v>
@@ -9158,13 +9154,13 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="DA24" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="DB24" t="n">
-        <v>66.666666666667</v>
+        <v>43.333333333333</v>
       </c>
       <c r="DC24" t="n">
         <v>0</v>
@@ -9176,19 +9172,19 @@
         <v>0</v>
       </c>
       <c r="DF24" t="n">
-        <v>74</v>
+        <v>856</v>
       </c>
       <c r="DG24" t="n">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="DH24" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="DI24" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="DJ24" t="n">
-        <v>2291112</v>
+        <v>2137955</v>
       </c>
       <c r="DK24" t="inlineStr">
         <is>
@@ -9210,348 +9206,348 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Dominik Greif</t>
+          <t>Hans Hateboer</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>791046</v>
+        <v>356352</v>
       </c>
       <c r="E25" t="n">
-        <v>6.9588235294118</v>
+        <v>6.0111111111111</v>
       </c>
       <c r="F25" t="n">
+        <v>11</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>443</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.09495713</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>301</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>181</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>85.377358490566</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>212</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>11.111111111111</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>45.161290322581</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>36.842105263158</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>58.333333333333</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>58</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>31</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>4</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>3</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT25" t="n">
+        <v>9</v>
+      </c>
+      <c r="CU25" t="n">
         <v>17</v>
       </c>
-      <c r="G25" t="n">
-        <v>17</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1530</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.01881542</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>706</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>440</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>78.853046594982</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>558</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>403</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>78</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>39.795918367347</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>124</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>90</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD25" t="n">
+      <c r="CV25" t="n">
+        <v>5</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>16</v>
+      </c>
+      <c r="DA25" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB25" t="n">
+        <v>75</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>112</v>
+      </c>
+      <c r="DG25" t="n">
         <v>100</v>
       </c>
-      <c r="BE25" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>83.333333333333</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>122</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>41</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>8</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>17</v>
-      </c>
-      <c r="BP25" t="n">
-        <v>2</v>
-      </c>
-      <c r="BQ25" t="n">
-        <v>118.3</v>
-      </c>
-      <c r="BR25" t="n">
-        <v>17</v>
-      </c>
-      <c r="BS25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT25" t="n">
-        <v>118</v>
-      </c>
-      <c r="BU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC25" t="n">
-        <v>57</v>
-      </c>
-      <c r="CD25" t="n">
-        <v>37</v>
-      </c>
-      <c r="CE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG25" t="n">
-        <v>2</v>
-      </c>
-      <c r="CH25" t="n">
-        <v>26</v>
-      </c>
-      <c r="CI25" t="n">
-        <v>15</v>
-      </c>
-      <c r="CJ25" t="n">
-        <v>14</v>
-      </c>
-      <c r="CK25" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL25" t="n">
-        <v>7</v>
-      </c>
-      <c r="CM25" t="n">
-        <v>12</v>
-      </c>
-      <c r="CN25" t="n">
-        <v>12</v>
-      </c>
-      <c r="CO25" t="n">
-        <v>11</v>
-      </c>
-      <c r="CP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ25" t="n">
-        <v>196</v>
-      </c>
-      <c r="DA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE25" t="n">
-        <v>10</v>
-      </c>
-      <c r="DF25" t="n">
-        <v>437</v>
-      </c>
-      <c r="DG25" t="n">
-        <v>121</v>
-      </c>
       <c r="DH25" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="DI25" t="n">
         <v>0</v>
       </c>
       <c r="DJ25" t="n">
-        <v>2288712</v>
+        <v>2291112</v>
       </c>
       <c r="DK25" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL25" t="n">
-        <v>0.2969</v>
-      </c>
+      <c r="DL25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9566,26 +9562,26 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Rémy Descamps</t>
+          <t>Dominik Greif</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>788180</v>
+        <v>791046</v>
       </c>
       <c r="E26" t="n">
-        <v>7.4</v>
+        <v>7.0222222222222</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H26" t="n">
-        <v>360</v>
+        <v>1620</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -9634,278 +9630,634 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26" t="n">
+        <v>0.01966009</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>753</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>475</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>79.697986577181</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>596</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>433</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>88</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>42.105263157895</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>131</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>83.333333333333</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>125</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>44</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>9</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>17</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>126.4</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>18</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>121</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>65</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>43</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>28</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>16</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>14</v>
+      </c>
+      <c r="CK26" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL26" t="n">
+        <v>7</v>
+      </c>
+      <c r="CM26" t="n">
+        <v>13</v>
+      </c>
+      <c r="CN26" t="n">
+        <v>13</v>
+      </c>
+      <c r="CO26" t="n">
+        <v>11</v>
+      </c>
+      <c r="CP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ26" t="n">
+        <v>209</v>
+      </c>
+      <c r="DA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE26" t="n">
+        <v>11</v>
+      </c>
+      <c r="DF26" t="n">
+        <v>468</v>
+      </c>
+      <c r="DG26" t="n">
+        <v>128</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>65</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>2288712</v>
+      </c>
+      <c r="DK26" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="DL26" t="n">
+        <v>0.7929</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ligue_1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Rémy Descamps</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>788180</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>360</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
         <v>0.0009423</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AB27" t="n">
         <v>142</v>
       </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
         <v>78</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AF27" t="n">
         <v>70.90909090909101</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AG27" t="n">
         <v>110</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AH27" t="n">
         <v>75</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AI27" t="n">
         <v>3</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK26" t="n">
+      <c r="AJ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK27" t="n">
         <v>11</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AL27" t="n">
         <v>28.205128205128</v>
       </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="n">
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
         <v>28</v>
       </c>
-      <c r="AS26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT26" t="n">
+      <c r="AS27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT27" t="n">
         <v>3</v>
       </c>
-      <c r="AU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG26" t="n">
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG27" t="n">
         <v>34</v>
       </c>
-      <c r="BH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM26" t="n">
+      <c r="BH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM27" t="n">
         <v>10</v>
       </c>
-      <c r="BN26" t="n">
+      <c r="BN27" t="n">
         <v>3</v>
       </c>
-      <c r="BO26" t="n">
+      <c r="BO27" t="n">
         <v>3</v>
       </c>
-      <c r="BP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ26" t="n">
+      <c r="BP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ27" t="n">
         <v>29.6</v>
       </c>
-      <c r="BR26" t="n">
+      <c r="BR27" t="n">
         <v>4</v>
       </c>
-      <c r="BS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT26" t="n">
+      <c r="BS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT27" t="n">
         <v>32</v>
       </c>
-      <c r="BU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC26" t="n">
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC27" t="n">
         <v>7</v>
       </c>
-      <c r="CD26" t="n">
+      <c r="CD27" t="n">
         <v>5</v>
       </c>
-      <c r="CE26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH26" t="n">
+      <c r="CE27" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH27" t="n">
         <v>6</v>
       </c>
-      <c r="CI26" t="n">
+      <c r="CI27" t="n">
         <v>4</v>
       </c>
-      <c r="CJ26" t="n">
+      <c r="CJ27" t="n">
         <v>3</v>
       </c>
-      <c r="CK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL26" t="n">
-        <v>2</v>
-      </c>
-      <c r="CM26" t="n">
-        <v>2</v>
-      </c>
-      <c r="CN26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO26" t="n">
-        <v>2</v>
-      </c>
-      <c r="CP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ26" t="n">
+      <c r="CK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL27" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM27" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN27" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO27" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ27" t="n">
         <v>39</v>
       </c>
-      <c r="DA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE26" t="n">
+      <c r="DA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE27" t="n">
         <v>5</v>
       </c>
-      <c r="DF26" t="n">
+      <c r="DF27" t="n">
         <v>88</v>
       </c>
-      <c r="DG26" t="n">
+      <c r="DG27" t="n">
         <v>22</v>
       </c>
-      <c r="DH26" t="n">
+      <c r="DH27" t="n">
         <v>13</v>
       </c>
-      <c r="DI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ26" t="n">
+      <c r="DI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ27" t="n">
         <v>2137939</v>
       </c>
-      <c r="DK26" t="inlineStr">
+      <c r="DK27" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL26" t="n">
+      <c r="DL27" t="n">
         <v>1.843</v>
       </c>
     </row>
